--- a/Administrative Spring 2023/Fundraising and Expenses/Arduino Cost Analysis.xlsx
+++ b/Administrative Spring 2023/Fundraising and Expenses/Arduino Cost Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Coding-Club\Administrative Spring 2023\Fundraising and Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72EBECC-9039-4720-9BE9-FFF1B233E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD5E2F-2DA2-4FE1-A7C7-02D50FF02DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D7284852-D2D7-4D32-A8C3-9A44017A6B87}"/>
   </bookViews>
@@ -536,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="N4">
         <f>$N$3/$J$3</f>
-        <v>38.176000000000002</v>
+        <v>31.813333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -603,7 +603,7 @@
       </c>
       <c r="L10" s="2">
         <f>ROUNDUP($J$3*K10,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
         <f>ROUNDUP(L10/I10,0)</f>
@@ -635,7 +635,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" ref="L11:L74" si="0">ROUNDUP($J$3*K11,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ref="M11:M74" si="1">ROUNDUP(L11/I11,0)</f>
@@ -722,11 +722,11 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
@@ -873,11 +873,11 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" s="2">
         <f>ROUNDUP(L19/I25,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="2"/>
@@ -896,11 +896,11 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" s="2">
         <f>ROUNDUP(L20/I26,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="2"/>
@@ -942,11 +942,11 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="2"/>
@@ -965,11 +965,11 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="2"/>
@@ -1052,11 +1052,11 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="2"/>
@@ -1075,11 +1075,11 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="2"/>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="2"/>
@@ -1121,11 +1121,11 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="2"/>
@@ -1144,11 +1144,11 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="2"/>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="2"/>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="2"/>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="2"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
@@ -1259,11 +1259,11 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="2"/>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="2"/>
@@ -1305,11 +1305,11 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="2"/>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="2"/>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="2"/>
@@ -1374,11 +1374,11 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="2"/>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="2"/>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="2"/>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="2"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="2"/>
@@ -1489,11 +1489,11 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="2"/>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="2"/>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="2"/>
@@ -1558,11 +1558,11 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="2"/>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="2"/>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="2"/>
@@ -1627,11 +1627,11 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="2"/>
@@ -1650,11 +1650,11 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="2"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="2"/>
@@ -1696,11 +1696,11 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="2"/>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="2"/>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="2"/>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="2"/>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="2"/>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="2"/>
@@ -1834,11 +1834,11 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="2"/>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="2"/>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="2"/>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="2"/>
@@ -1926,11 +1926,11 @@
       </c>
       <c r="L64" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="2"/>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="2"/>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="2"/>
@@ -1995,11 +1995,11 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="2"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="2"/>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="2"/>
@@ -2064,11 +2064,11 @@
       </c>
       <c r="L70" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="2"/>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="L71" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="2"/>
@@ -2133,11 +2133,11 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="2"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="2"/>
@@ -2179,11 +2179,11 @@
       </c>
       <c r="L75" s="2">
         <f t="shared" ref="L75:L138" si="4">ROUNDUP($J$3*K75,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ref="M75:M138" si="5">ROUNDUP(L75/I75,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" ref="N75:N138" si="6">M75*J75</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="6"/>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="6"/>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="6"/>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="L79" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="6"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="6"/>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="6"/>
@@ -2340,11 +2340,11 @@
       </c>
       <c r="L82" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="6"/>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="L83" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="6"/>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="6"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="6"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="L86" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="6"/>
@@ -2455,11 +2455,11 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="6"/>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="L88" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="6"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="6"/>
@@ -2524,11 +2524,11 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="6"/>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="L91" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="6"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="L92" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="6"/>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="6"/>
@@ -2616,11 +2616,11 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="6"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="L95" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="6"/>
@@ -2662,11 +2662,11 @@
       </c>
       <c r="L96" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="6"/>
@@ -2685,11 +2685,11 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="6"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="6"/>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="L99" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="6"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="L100" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="6"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="L101" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="6"/>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="L102" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="6"/>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="6"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="6"/>
@@ -2869,11 +2869,11 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="6"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="6"/>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="6"/>
@@ -2938,11 +2938,11 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="6"/>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="6"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="6"/>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="6"/>
@@ -3030,11 +3030,11 @@
       </c>
       <c r="L112" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N112" s="2">
         <f t="shared" si="6"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="L113" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N113" s="2">
         <f t="shared" si="6"/>
@@ -3076,11 +3076,11 @@
       </c>
       <c r="L114" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N114" s="2">
         <f t="shared" si="6"/>
@@ -3099,11 +3099,11 @@
       </c>
       <c r="L115" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N115" s="2">
         <f t="shared" si="6"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="L116" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N116" s="2">
         <f t="shared" si="6"/>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="L117" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N117" s="2">
         <f t="shared" si="6"/>
@@ -3168,11 +3168,11 @@
       </c>
       <c r="L118" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N118" s="2">
         <f t="shared" si="6"/>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="L119" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M119" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N119" s="2">
         <f t="shared" si="6"/>
@@ -3214,11 +3214,11 @@
       </c>
       <c r="L120" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M120" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N120" s="2">
         <f t="shared" si="6"/>
@@ -3237,11 +3237,11 @@
       </c>
       <c r="L121" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M121" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N121" s="2">
         <f t="shared" si="6"/>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="L122" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M122" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N122" s="2">
         <f t="shared" si="6"/>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="L123" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M123" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N123" s="2">
         <f t="shared" si="6"/>
@@ -3306,11 +3306,11 @@
       </c>
       <c r="L124" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M124" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N124" s="2">
         <f t="shared" si="6"/>
@@ -3329,11 +3329,11 @@
       </c>
       <c r="L125" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M125" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N125" s="2">
         <f t="shared" si="6"/>
@@ -3352,11 +3352,11 @@
       </c>
       <c r="L126" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M126" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N126" s="2">
         <f t="shared" si="6"/>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="L127" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M127" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N127" s="2">
         <f t="shared" si="6"/>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="L128" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M128" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N128" s="2">
         <f t="shared" si="6"/>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="L129" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M129" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N129" s="2">
         <f t="shared" si="6"/>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="L130" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M130" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N130" s="2">
         <f t="shared" si="6"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="L131" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N131" s="2">
         <f t="shared" si="6"/>
@@ -3490,11 +3490,11 @@
       </c>
       <c r="L132" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N132" s="2">
         <f t="shared" si="6"/>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="L133" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M133" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N133" s="2">
         <f t="shared" si="6"/>
@@ -3536,11 +3536,11 @@
       </c>
       <c r="L134" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M134" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N134" s="2">
         <f t="shared" si="6"/>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="L135" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M135" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N135" s="2">
         <f t="shared" si="6"/>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="L136" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M136" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N136" s="2">
         <f t="shared" si="6"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="L137" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M137" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N137" s="2">
         <f t="shared" si="6"/>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="L138" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M138" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N138" s="2">
         <f t="shared" si="6"/>
@@ -3651,11 +3651,11 @@
       </c>
       <c r="L139" s="2">
         <f t="shared" ref="L139:L202" si="7">ROUNDUP($J$3*K139,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M139" s="2">
         <f t="shared" ref="M139:M202" si="8">ROUNDUP(L139/I139,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N139" s="2">
         <f t="shared" ref="N139:N202" si="9">M139*J139</f>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="L140" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M140" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N140" s="2">
         <f t="shared" si="9"/>
@@ -3697,11 +3697,11 @@
       </c>
       <c r="L141" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M141" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N141" s="2">
         <f t="shared" si="9"/>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="L142" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M142" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N142" s="2">
         <f t="shared" si="9"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="L143" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M143" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N143" s="2">
         <f t="shared" si="9"/>
@@ -3766,11 +3766,11 @@
       </c>
       <c r="L144" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M144" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N144" s="2">
         <f t="shared" si="9"/>
@@ -3789,11 +3789,11 @@
       </c>
       <c r="L145" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M145" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N145" s="2">
         <f t="shared" si="9"/>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="L146" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M146" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N146" s="2">
         <f t="shared" si="9"/>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="L147" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M147" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N147" s="2">
         <f t="shared" si="9"/>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="L148" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M148" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N148" s="2">
         <f t="shared" si="9"/>
@@ -3881,11 +3881,11 @@
       </c>
       <c r="L149" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M149" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N149" s="2">
         <f t="shared" si="9"/>
@@ -3904,11 +3904,11 @@
       </c>
       <c r="L150" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M150" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N150" s="2">
         <f t="shared" si="9"/>
@@ -3927,11 +3927,11 @@
       </c>
       <c r="L151" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M151" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N151" s="2">
         <f t="shared" si="9"/>
@@ -3950,11 +3950,11 @@
       </c>
       <c r="L152" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M152" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N152" s="2">
         <f t="shared" si="9"/>
@@ -3973,11 +3973,11 @@
       </c>
       <c r="L153" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M153" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N153" s="2">
         <f t="shared" si="9"/>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="L154" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M154" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N154" s="2">
         <f t="shared" si="9"/>
@@ -4019,11 +4019,11 @@
       </c>
       <c r="L155" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M155" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N155" s="2">
         <f t="shared" si="9"/>
@@ -4042,11 +4042,11 @@
       </c>
       <c r="L156" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M156" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N156" s="2">
         <f t="shared" si="9"/>
@@ -4065,11 +4065,11 @@
       </c>
       <c r="L157" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M157" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N157" s="2">
         <f t="shared" si="9"/>
@@ -4088,11 +4088,11 @@
       </c>
       <c r="L158" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M158" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N158" s="2">
         <f t="shared" si="9"/>
@@ -4111,11 +4111,11 @@
       </c>
       <c r="L159" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M159" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N159" s="2">
         <f t="shared" si="9"/>
@@ -4134,11 +4134,11 @@
       </c>
       <c r="L160" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M160" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N160" s="2">
         <f t="shared" si="9"/>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="L161" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M161" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N161" s="2">
         <f t="shared" si="9"/>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="L162" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M162" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N162" s="2">
         <f t="shared" si="9"/>
@@ -4203,11 +4203,11 @@
       </c>
       <c r="L163" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M163" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N163" s="2">
         <f t="shared" si="9"/>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="L164" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M164" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N164" s="2">
         <f t="shared" si="9"/>
@@ -4249,11 +4249,11 @@
       </c>
       <c r="L165" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M165" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N165" s="2">
         <f t="shared" si="9"/>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="L166" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M166" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N166" s="2">
         <f t="shared" si="9"/>
@@ -4295,11 +4295,11 @@
       </c>
       <c r="L167" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M167" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N167" s="2">
         <f t="shared" si="9"/>
@@ -4318,11 +4318,11 @@
       </c>
       <c r="L168" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M168" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N168" s="2">
         <f t="shared" si="9"/>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="L169" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M169" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N169" s="2">
         <f t="shared" si="9"/>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="L170" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M170" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N170" s="2">
         <f t="shared" si="9"/>
@@ -4387,11 +4387,11 @@
       </c>
       <c r="L171" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M171" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N171" s="2">
         <f t="shared" si="9"/>
@@ -4410,11 +4410,11 @@
       </c>
       <c r="L172" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M172" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N172" s="2">
         <f t="shared" si="9"/>
@@ -4433,11 +4433,11 @@
       </c>
       <c r="L173" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M173" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N173" s="2">
         <f t="shared" si="9"/>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="L174" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M174" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N174" s="2">
         <f t="shared" si="9"/>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="L175" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M175" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N175" s="2">
         <f t="shared" si="9"/>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="L176" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M176" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N176" s="2">
         <f t="shared" si="9"/>
@@ -4525,11 +4525,11 @@
       </c>
       <c r="L177" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M177" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N177" s="2">
         <f t="shared" si="9"/>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="L178" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M178" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N178" s="2">
         <f t="shared" si="9"/>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="L179" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M179" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N179" s="2">
         <f t="shared" si="9"/>
@@ -4594,11 +4594,11 @@
       </c>
       <c r="L180" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M180" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N180" s="2">
         <f t="shared" si="9"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="L181" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M181" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N181" s="2">
         <f t="shared" si="9"/>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="L182" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M182" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N182" s="2">
         <f t="shared" si="9"/>
@@ -4663,11 +4663,11 @@
       </c>
       <c r="L183" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M183" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N183" s="2">
         <f t="shared" si="9"/>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="L184" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M184" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N184" s="2">
         <f t="shared" si="9"/>
@@ -4709,11 +4709,11 @@
       </c>
       <c r="L185" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M185" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N185" s="2">
         <f t="shared" si="9"/>
@@ -4732,11 +4732,11 @@
       </c>
       <c r="L186" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M186" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N186" s="2">
         <f t="shared" si="9"/>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="L187" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M187" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N187" s="2">
         <f t="shared" si="9"/>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="L188" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M188" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N188" s="2">
         <f t="shared" si="9"/>
@@ -4801,11 +4801,11 @@
       </c>
       <c r="L189" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M189" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N189" s="2">
         <f t="shared" si="9"/>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="L190" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M190" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N190" s="2">
         <f t="shared" si="9"/>
@@ -4847,11 +4847,11 @@
       </c>
       <c r="L191" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M191" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N191" s="2">
         <f t="shared" si="9"/>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="L192" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M192" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N192" s="2">
         <f t="shared" si="9"/>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="L193" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M193" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N193" s="2">
         <f t="shared" si="9"/>
@@ -4916,11 +4916,11 @@
       </c>
       <c r="L194" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M194" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N194" s="2">
         <f t="shared" si="9"/>
@@ -4939,11 +4939,11 @@
       </c>
       <c r="L195" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M195" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N195" s="2">
         <f t="shared" si="9"/>
@@ -4962,11 +4962,11 @@
       </c>
       <c r="L196" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M196" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N196" s="2">
         <f t="shared" si="9"/>
@@ -4985,11 +4985,11 @@
       </c>
       <c r="L197" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M197" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N197" s="2">
         <f t="shared" si="9"/>
@@ -5008,11 +5008,11 @@
       </c>
       <c r="L198" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M198" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N198" s="2">
         <f t="shared" si="9"/>
@@ -5031,11 +5031,11 @@
       </c>
       <c r="L199" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M199" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N199" s="2">
         <f t="shared" si="9"/>
@@ -5054,11 +5054,11 @@
       </c>
       <c r="L200" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M200" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N200" s="2">
         <f t="shared" si="9"/>
@@ -5077,11 +5077,11 @@
       </c>
       <c r="L201" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M201" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N201" s="2">
         <f t="shared" si="9"/>
@@ -5100,11 +5100,11 @@
       </c>
       <c r="L202" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M202" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N202" s="2">
         <f t="shared" si="9"/>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="L203" s="2">
         <f t="shared" ref="L203:L266" si="10">ROUNDUP($J$3*K203,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M203" s="2">
         <f t="shared" ref="M203:M266" si="11">ROUNDUP(L203/I203,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N203" s="2">
         <f t="shared" ref="N203:N266" si="12">M203*J203</f>
@@ -5146,11 +5146,11 @@
       </c>
       <c r="L204" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M204" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N204" s="2">
         <f t="shared" si="12"/>
@@ -5169,11 +5169,11 @@
       </c>
       <c r="L205" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M205" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N205" s="2">
         <f t="shared" si="12"/>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="L206" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M206" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N206" s="2">
         <f t="shared" si="12"/>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="L207" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M207" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N207" s="2">
         <f t="shared" si="12"/>
@@ -5238,11 +5238,11 @@
       </c>
       <c r="L208" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M208" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N208" s="2">
         <f t="shared" si="12"/>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="L209" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M209" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N209" s="2">
         <f t="shared" si="12"/>
@@ -5284,11 +5284,11 @@
       </c>
       <c r="L210" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M210" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N210" s="2">
         <f t="shared" si="12"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="L211" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M211" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N211" s="2">
         <f t="shared" si="12"/>
@@ -5330,11 +5330,11 @@
       </c>
       <c r="L212" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M212" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N212" s="2">
         <f t="shared" si="12"/>
@@ -5353,11 +5353,11 @@
       </c>
       <c r="L213" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M213" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N213" s="2">
         <f t="shared" si="12"/>
@@ -5376,11 +5376,11 @@
       </c>
       <c r="L214" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M214" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N214" s="2">
         <f t="shared" si="12"/>
@@ -5399,11 +5399,11 @@
       </c>
       <c r="L215" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M215" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N215" s="2">
         <f t="shared" si="12"/>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="L216" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M216" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N216" s="2">
         <f t="shared" si="12"/>
@@ -5445,11 +5445,11 @@
       </c>
       <c r="L217" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M217" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N217" s="2">
         <f t="shared" si="12"/>
@@ -5468,11 +5468,11 @@
       </c>
       <c r="L218" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M218" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N218" s="2">
         <f t="shared" si="12"/>
@@ -5491,11 +5491,11 @@
       </c>
       <c r="L219" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M219" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N219" s="2">
         <f t="shared" si="12"/>
@@ -5514,11 +5514,11 @@
       </c>
       <c r="L220" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M220" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N220" s="2">
         <f t="shared" si="12"/>
@@ -5537,11 +5537,11 @@
       </c>
       <c r="L221" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M221" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N221" s="2">
         <f t="shared" si="12"/>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="L222" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M222" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N222" s="2">
         <f t="shared" si="12"/>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="L223" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M223" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N223" s="2">
         <f t="shared" si="12"/>
@@ -5606,11 +5606,11 @@
       </c>
       <c r="L224" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M224" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N224" s="2">
         <f t="shared" si="12"/>
@@ -5629,11 +5629,11 @@
       </c>
       <c r="L225" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M225" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N225" s="2">
         <f t="shared" si="12"/>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="L226" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M226" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N226" s="2">
         <f t="shared" si="12"/>
@@ -5675,11 +5675,11 @@
       </c>
       <c r="L227" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M227" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N227" s="2">
         <f t="shared" si="12"/>
@@ -5698,11 +5698,11 @@
       </c>
       <c r="L228" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M228" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N228" s="2">
         <f t="shared" si="12"/>
@@ -5721,11 +5721,11 @@
       </c>
       <c r="L229" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M229" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N229" s="2">
         <f t="shared" si="12"/>
@@ -5744,11 +5744,11 @@
       </c>
       <c r="L230" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M230" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N230" s="2">
         <f t="shared" si="12"/>
@@ -5767,11 +5767,11 @@
       </c>
       <c r="L231" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M231" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N231" s="2">
         <f t="shared" si="12"/>
@@ -5790,11 +5790,11 @@
       </c>
       <c r="L232" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M232" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N232" s="2">
         <f t="shared" si="12"/>
@@ -5813,11 +5813,11 @@
       </c>
       <c r="L233" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M233" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N233" s="2">
         <f t="shared" si="12"/>
@@ -5836,11 +5836,11 @@
       </c>
       <c r="L234" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M234" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N234" s="2">
         <f t="shared" si="12"/>
@@ -5859,11 +5859,11 @@
       </c>
       <c r="L235" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M235" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N235" s="2">
         <f t="shared" si="12"/>
@@ -5882,11 +5882,11 @@
       </c>
       <c r="L236" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M236" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N236" s="2">
         <f t="shared" si="12"/>
@@ -5905,11 +5905,11 @@
       </c>
       <c r="L237" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M237" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N237" s="2">
         <f t="shared" si="12"/>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="L238" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M238" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N238" s="2">
         <f t="shared" si="12"/>
@@ -5951,11 +5951,11 @@
       </c>
       <c r="L239" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M239" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N239" s="2">
         <f t="shared" si="12"/>
@@ -5974,11 +5974,11 @@
       </c>
       <c r="L240" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M240" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N240" s="2">
         <f t="shared" si="12"/>
@@ -5997,11 +5997,11 @@
       </c>
       <c r="L241" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M241" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N241" s="2">
         <f t="shared" si="12"/>
@@ -6020,11 +6020,11 @@
       </c>
       <c r="L242" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M242" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N242" s="2">
         <f t="shared" si="12"/>
@@ -6043,11 +6043,11 @@
       </c>
       <c r="L243" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M243" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N243" s="2">
         <f t="shared" si="12"/>
@@ -6066,11 +6066,11 @@
       </c>
       <c r="L244" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M244" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N244" s="2">
         <f t="shared" si="12"/>
@@ -6089,11 +6089,11 @@
       </c>
       <c r="L245" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M245" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N245" s="2">
         <f t="shared" si="12"/>
@@ -6112,11 +6112,11 @@
       </c>
       <c r="L246" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M246" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N246" s="2">
         <f t="shared" si="12"/>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="L247" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M247" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N247" s="2">
         <f t="shared" si="12"/>
@@ -6158,11 +6158,11 @@
       </c>
       <c r="L248" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M248" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N248" s="2">
         <f t="shared" si="12"/>
@@ -6181,11 +6181,11 @@
       </c>
       <c r="L249" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M249" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N249" s="2">
         <f t="shared" si="12"/>
@@ -6204,11 +6204,11 @@
       </c>
       <c r="L250" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M250" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N250" s="2">
         <f t="shared" si="12"/>
@@ -6227,11 +6227,11 @@
       </c>
       <c r="L251" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M251" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N251" s="2">
         <f t="shared" si="12"/>
@@ -6250,11 +6250,11 @@
       </c>
       <c r="L252" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M252" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N252" s="2">
         <f t="shared" si="12"/>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="L253" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M253" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N253" s="2">
         <f t="shared" si="12"/>
@@ -6296,11 +6296,11 @@
       </c>
       <c r="L254" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M254" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N254" s="2">
         <f t="shared" si="12"/>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="L255" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M255" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N255" s="2">
         <f t="shared" si="12"/>
@@ -6342,11 +6342,11 @@
       </c>
       <c r="L256" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M256" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N256" s="2">
         <f t="shared" si="12"/>
@@ -6365,11 +6365,11 @@
       </c>
       <c r="L257" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M257" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N257" s="2">
         <f t="shared" si="12"/>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="L258" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M258" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N258" s="2">
         <f t="shared" si="12"/>
@@ -6411,11 +6411,11 @@
       </c>
       <c r="L259" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M259" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N259" s="2">
         <f t="shared" si="12"/>
@@ -6434,11 +6434,11 @@
       </c>
       <c r="L260" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M260" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N260" s="2">
         <f t="shared" si="12"/>
@@ -6457,11 +6457,11 @@
       </c>
       <c r="L261" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M261" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N261" s="2">
         <f t="shared" si="12"/>
@@ -6480,11 +6480,11 @@
       </c>
       <c r="L262" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M262" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N262" s="2">
         <f t="shared" si="12"/>
@@ -6503,11 +6503,11 @@
       </c>
       <c r="L263" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M263" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N263" s="2">
         <f t="shared" si="12"/>
@@ -6526,11 +6526,11 @@
       </c>
       <c r="L264" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M264" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N264" s="2">
         <f t="shared" si="12"/>
@@ -6549,11 +6549,11 @@
       </c>
       <c r="L265" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M265" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N265" s="2">
         <f t="shared" si="12"/>
@@ -6572,11 +6572,11 @@
       </c>
       <c r="L266" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M266" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N266" s="2">
         <f t="shared" si="12"/>
@@ -6595,11 +6595,11 @@
       </c>
       <c r="L267" s="2">
         <f t="shared" ref="L267:L330" si="13">ROUNDUP($J$3*K267,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M267" s="2">
         <f t="shared" ref="M267:M330" si="14">ROUNDUP(L267/I267,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N267" s="2">
         <f t="shared" ref="N267:N330" si="15">M267*J267</f>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="L268" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M268" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N268" s="2">
         <f t="shared" si="15"/>
@@ -6641,11 +6641,11 @@
       </c>
       <c r="L269" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M269" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N269" s="2">
         <f t="shared" si="15"/>
@@ -6664,11 +6664,11 @@
       </c>
       <c r="L270" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M270" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N270" s="2">
         <f t="shared" si="15"/>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="L271" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M271" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N271" s="2">
         <f t="shared" si="15"/>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="L272" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M272" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N272" s="2">
         <f t="shared" si="15"/>
@@ -6733,11 +6733,11 @@
       </c>
       <c r="L273" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M273" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N273" s="2">
         <f t="shared" si="15"/>
@@ -6756,11 +6756,11 @@
       </c>
       <c r="L274" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M274" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N274" s="2">
         <f t="shared" si="15"/>
@@ -6779,11 +6779,11 @@
       </c>
       <c r="L275" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M275" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N275" s="2">
         <f t="shared" si="15"/>
@@ -6802,11 +6802,11 @@
       </c>
       <c r="L276" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M276" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N276" s="2">
         <f t="shared" si="15"/>
@@ -6825,11 +6825,11 @@
       </c>
       <c r="L277" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M277" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N277" s="2">
         <f t="shared" si="15"/>
@@ -6848,11 +6848,11 @@
       </c>
       <c r="L278" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M278" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N278" s="2">
         <f t="shared" si="15"/>
@@ -6871,11 +6871,11 @@
       </c>
       <c r="L279" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M279" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N279" s="2">
         <f t="shared" si="15"/>
@@ -6894,11 +6894,11 @@
       </c>
       <c r="L280" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M280" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N280" s="2">
         <f t="shared" si="15"/>
@@ -6917,11 +6917,11 @@
       </c>
       <c r="L281" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M281" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N281" s="2">
         <f t="shared" si="15"/>
@@ -6940,11 +6940,11 @@
       </c>
       <c r="L282" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M282" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N282" s="2">
         <f t="shared" si="15"/>
@@ -6963,11 +6963,11 @@
       </c>
       <c r="L283" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M283" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N283" s="2">
         <f t="shared" si="15"/>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="L284" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M284" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N284" s="2">
         <f t="shared" si="15"/>
@@ -7009,11 +7009,11 @@
       </c>
       <c r="L285" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M285" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N285" s="2">
         <f t="shared" si="15"/>
@@ -7032,11 +7032,11 @@
       </c>
       <c r="L286" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M286" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N286" s="2">
         <f t="shared" si="15"/>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="L287" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M287" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N287" s="2">
         <f t="shared" si="15"/>
@@ -7078,11 +7078,11 @@
       </c>
       <c r="L288" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M288" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N288" s="2">
         <f t="shared" si="15"/>
@@ -7101,11 +7101,11 @@
       </c>
       <c r="L289" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M289" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N289" s="2">
         <f t="shared" si="15"/>
@@ -7124,11 +7124,11 @@
       </c>
       <c r="L290" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M290" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N290" s="2">
         <f t="shared" si="15"/>
@@ -7147,11 +7147,11 @@
       </c>
       <c r="L291" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M291" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N291" s="2">
         <f t="shared" si="15"/>
@@ -7170,11 +7170,11 @@
       </c>
       <c r="L292" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M292" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N292" s="2">
         <f t="shared" si="15"/>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="L293" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M293" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N293" s="2">
         <f t="shared" si="15"/>
@@ -7216,11 +7216,11 @@
       </c>
       <c r="L294" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M294" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N294" s="2">
         <f t="shared" si="15"/>
@@ -7239,11 +7239,11 @@
       </c>
       <c r="L295" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M295" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N295" s="2">
         <f t="shared" si="15"/>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="L296" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M296" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N296" s="2">
         <f t="shared" si="15"/>
@@ -7285,11 +7285,11 @@
       </c>
       <c r="L297" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M297" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N297" s="2">
         <f t="shared" si="15"/>
@@ -7308,11 +7308,11 @@
       </c>
       <c r="L298" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M298" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N298" s="2">
         <f t="shared" si="15"/>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="L299" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M299" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N299" s="2">
         <f t="shared" si="15"/>
@@ -7354,11 +7354,11 @@
       </c>
       <c r="L300" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M300" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N300" s="2">
         <f t="shared" si="15"/>
@@ -7377,11 +7377,11 @@
       </c>
       <c r="L301" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M301" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N301" s="2">
         <f t="shared" si="15"/>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="L302" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M302" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N302" s="2">
         <f t="shared" si="15"/>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="L303" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M303" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N303" s="2">
         <f t="shared" si="15"/>
@@ -7446,11 +7446,11 @@
       </c>
       <c r="L304" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M304" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N304" s="2">
         <f t="shared" si="15"/>
@@ -7469,11 +7469,11 @@
       </c>
       <c r="L305" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M305" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N305" s="2">
         <f t="shared" si="15"/>
@@ -7492,11 +7492,11 @@
       </c>
       <c r="L306" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M306" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N306" s="2">
         <f t="shared" si="15"/>
@@ -7515,11 +7515,11 @@
       </c>
       <c r="L307" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M307" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N307" s="2">
         <f t="shared" si="15"/>
@@ -7538,11 +7538,11 @@
       </c>
       <c r="L308" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M308" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N308" s="2">
         <f t="shared" si="15"/>
@@ -7561,11 +7561,11 @@
       </c>
       <c r="L309" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M309" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N309" s="2">
         <f t="shared" si="15"/>
@@ -7584,11 +7584,11 @@
       </c>
       <c r="L310" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M310" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N310" s="2">
         <f t="shared" si="15"/>
@@ -7607,11 +7607,11 @@
       </c>
       <c r="L311" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M311" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N311" s="2">
         <f t="shared" si="15"/>
@@ -7630,11 +7630,11 @@
       </c>
       <c r="L312" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M312" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N312" s="2">
         <f t="shared" si="15"/>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="L313" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M313" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N313" s="2">
         <f t="shared" si="15"/>
@@ -7676,11 +7676,11 @@
       </c>
       <c r="L314" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M314" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N314" s="2">
         <f t="shared" si="15"/>
@@ -7699,11 +7699,11 @@
       </c>
       <c r="L315" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M315" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N315" s="2">
         <f t="shared" si="15"/>
@@ -7722,11 +7722,11 @@
       </c>
       <c r="L316" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M316" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N316" s="2">
         <f t="shared" si="15"/>
@@ -7745,11 +7745,11 @@
       </c>
       <c r="L317" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M317" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N317" s="2">
         <f t="shared" si="15"/>
@@ -7768,11 +7768,11 @@
       </c>
       <c r="L318" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M318" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N318" s="2">
         <f t="shared" si="15"/>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="L319" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M319" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N319" s="2">
         <f t="shared" si="15"/>
@@ -7814,11 +7814,11 @@
       </c>
       <c r="L320" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M320" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N320" s="2">
         <f t="shared" si="15"/>
@@ -7837,11 +7837,11 @@
       </c>
       <c r="L321" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M321" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N321" s="2">
         <f t="shared" si="15"/>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="L322" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M322" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N322" s="2">
         <f t="shared" si="15"/>
@@ -7883,11 +7883,11 @@
       </c>
       <c r="L323" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M323" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N323" s="2">
         <f t="shared" si="15"/>
@@ -7906,11 +7906,11 @@
       </c>
       <c r="L324" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M324" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N324" s="2">
         <f t="shared" si="15"/>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="L325" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M325" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N325" s="2">
         <f t="shared" si="15"/>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="L326" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M326" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N326" s="2">
         <f t="shared" si="15"/>
@@ -7975,11 +7975,11 @@
       </c>
       <c r="L327" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M327" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N327" s="2">
         <f t="shared" si="15"/>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="L328" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M328" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N328" s="2">
         <f t="shared" si="15"/>
@@ -8021,11 +8021,11 @@
       </c>
       <c r="L329" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M329" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N329" s="2">
         <f t="shared" si="15"/>
@@ -8044,11 +8044,11 @@
       </c>
       <c r="L330" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M330" s="2">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N330" s="2">
         <f t="shared" si="15"/>
@@ -8067,11 +8067,11 @@
       </c>
       <c r="L331" s="2">
         <f t="shared" ref="L331:L394" si="16">ROUNDUP($J$3*K331,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M331" s="2">
         <f t="shared" ref="M331:M394" si="17">ROUNDUP(L331/I331,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N331" s="2">
         <f t="shared" ref="N331:N394" si="18">M331*J331</f>
@@ -8090,11 +8090,11 @@
       </c>
       <c r="L332" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M332" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N332" s="2">
         <f t="shared" si="18"/>
@@ -8113,11 +8113,11 @@
       </c>
       <c r="L333" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M333" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N333" s="2">
         <f t="shared" si="18"/>
@@ -8136,11 +8136,11 @@
       </c>
       <c r="L334" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M334" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N334" s="2">
         <f t="shared" si="18"/>
@@ -8159,11 +8159,11 @@
       </c>
       <c r="L335" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M335" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N335" s="2">
         <f t="shared" si="18"/>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="L336" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M336" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N336" s="2">
         <f t="shared" si="18"/>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="L337" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M337" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N337" s="2">
         <f t="shared" si="18"/>
@@ -8228,11 +8228,11 @@
       </c>
       <c r="L338" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M338" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N338" s="2">
         <f t="shared" si="18"/>
@@ -8251,11 +8251,11 @@
       </c>
       <c r="L339" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M339" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N339" s="2">
         <f t="shared" si="18"/>
@@ -8274,11 +8274,11 @@
       </c>
       <c r="L340" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M340" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N340" s="2">
         <f t="shared" si="18"/>
@@ -8297,11 +8297,11 @@
       </c>
       <c r="L341" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M341" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N341" s="2">
         <f t="shared" si="18"/>
@@ -8320,11 +8320,11 @@
       </c>
       <c r="L342" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M342" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N342" s="2">
         <f t="shared" si="18"/>
@@ -8343,11 +8343,11 @@
       </c>
       <c r="L343" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M343" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N343" s="2">
         <f t="shared" si="18"/>
@@ -8366,11 +8366,11 @@
       </c>
       <c r="L344" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M344" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N344" s="2">
         <f t="shared" si="18"/>
@@ -8389,11 +8389,11 @@
       </c>
       <c r="L345" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M345" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N345" s="2">
         <f t="shared" si="18"/>
@@ -8412,11 +8412,11 @@
       </c>
       <c r="L346" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M346" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N346" s="2">
         <f t="shared" si="18"/>
@@ -8435,11 +8435,11 @@
       </c>
       <c r="L347" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M347" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N347" s="2">
         <f t="shared" si="18"/>
@@ -8458,11 +8458,11 @@
       </c>
       <c r="L348" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M348" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N348" s="2">
         <f t="shared" si="18"/>
@@ -8481,11 +8481,11 @@
       </c>
       <c r="L349" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M349" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N349" s="2">
         <f t="shared" si="18"/>
@@ -8504,11 +8504,11 @@
       </c>
       <c r="L350" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M350" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N350" s="2">
         <f t="shared" si="18"/>
@@ -8527,11 +8527,11 @@
       </c>
       <c r="L351" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M351" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N351" s="2">
         <f t="shared" si="18"/>
@@ -8550,11 +8550,11 @@
       </c>
       <c r="L352" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M352" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N352" s="2">
         <f t="shared" si="18"/>
@@ -8573,11 +8573,11 @@
       </c>
       <c r="L353" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M353" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N353" s="2">
         <f t="shared" si="18"/>
@@ -8596,11 +8596,11 @@
       </c>
       <c r="L354" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M354" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N354" s="2">
         <f t="shared" si="18"/>
@@ -8619,11 +8619,11 @@
       </c>
       <c r="L355" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M355" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N355" s="2">
         <f t="shared" si="18"/>
@@ -8642,11 +8642,11 @@
       </c>
       <c r="L356" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M356" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N356" s="2">
         <f t="shared" si="18"/>
@@ -8665,11 +8665,11 @@
       </c>
       <c r="L357" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M357" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N357" s="2">
         <f t="shared" si="18"/>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="L358" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M358" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N358" s="2">
         <f t="shared" si="18"/>
@@ -8711,11 +8711,11 @@
       </c>
       <c r="L359" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M359" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N359" s="2">
         <f t="shared" si="18"/>
@@ -8734,11 +8734,11 @@
       </c>
       <c r="L360" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M360" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N360" s="2">
         <f t="shared" si="18"/>
@@ -8757,11 +8757,11 @@
       </c>
       <c r="L361" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M361" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N361" s="2">
         <f t="shared" si="18"/>
@@ -8780,11 +8780,11 @@
       </c>
       <c r="L362" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M362" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N362" s="2">
         <f t="shared" si="18"/>
@@ -8803,11 +8803,11 @@
       </c>
       <c r="L363" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M363" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N363" s="2">
         <f t="shared" si="18"/>
@@ -8826,11 +8826,11 @@
       </c>
       <c r="L364" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M364" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N364" s="2">
         <f t="shared" si="18"/>
@@ -8849,11 +8849,11 @@
       </c>
       <c r="L365" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M365" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N365" s="2">
         <f t="shared" si="18"/>
@@ -8872,11 +8872,11 @@
       </c>
       <c r="L366" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M366" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N366" s="2">
         <f t="shared" si="18"/>
@@ -8895,11 +8895,11 @@
       </c>
       <c r="L367" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M367" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N367" s="2">
         <f t="shared" si="18"/>
@@ -8918,11 +8918,11 @@
       </c>
       <c r="L368" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M368" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N368" s="2">
         <f t="shared" si="18"/>
@@ -8941,11 +8941,11 @@
       </c>
       <c r="L369" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M369" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N369" s="2">
         <f t="shared" si="18"/>
@@ -8964,11 +8964,11 @@
       </c>
       <c r="L370" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M370" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N370" s="2">
         <f t="shared" si="18"/>
@@ -8987,11 +8987,11 @@
       </c>
       <c r="L371" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M371" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N371" s="2">
         <f t="shared" si="18"/>
@@ -9010,11 +9010,11 @@
       </c>
       <c r="L372" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M372" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N372" s="2">
         <f t="shared" si="18"/>
@@ -9033,11 +9033,11 @@
       </c>
       <c r="L373" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M373" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N373" s="2">
         <f t="shared" si="18"/>
@@ -9056,11 +9056,11 @@
       </c>
       <c r="L374" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M374" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N374" s="2">
         <f t="shared" si="18"/>
@@ -9079,11 +9079,11 @@
       </c>
       <c r="L375" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M375" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N375" s="2">
         <f t="shared" si="18"/>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="L376" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M376" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N376" s="2">
         <f t="shared" si="18"/>
@@ -9125,11 +9125,11 @@
       </c>
       <c r="L377" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M377" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N377" s="2">
         <f t="shared" si="18"/>
@@ -9148,11 +9148,11 @@
       </c>
       <c r="L378" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M378" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N378" s="2">
         <f t="shared" si="18"/>
@@ -9171,11 +9171,11 @@
       </c>
       <c r="L379" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M379" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N379" s="2">
         <f t="shared" si="18"/>
@@ -9194,11 +9194,11 @@
       </c>
       <c r="L380" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M380" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N380" s="2">
         <f t="shared" si="18"/>
@@ -9217,11 +9217,11 @@
       </c>
       <c r="L381" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M381" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N381" s="2">
         <f t="shared" si="18"/>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="L382" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M382" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N382" s="2">
         <f t="shared" si="18"/>
@@ -9263,11 +9263,11 @@
       </c>
       <c r="L383" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M383" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N383" s="2">
         <f t="shared" si="18"/>
@@ -9286,11 +9286,11 @@
       </c>
       <c r="L384" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M384" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N384" s="2">
         <f t="shared" si="18"/>
@@ -9309,11 +9309,11 @@
       </c>
       <c r="L385" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M385" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N385" s="2">
         <f t="shared" si="18"/>
@@ -9332,11 +9332,11 @@
       </c>
       <c r="L386" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M386" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N386" s="2">
         <f t="shared" si="18"/>
@@ -9355,11 +9355,11 @@
       </c>
       <c r="L387" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M387" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N387" s="2">
         <f t="shared" si="18"/>
@@ -9378,11 +9378,11 @@
       </c>
       <c r="L388" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M388" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N388" s="2">
         <f t="shared" si="18"/>
@@ -9401,11 +9401,11 @@
       </c>
       <c r="L389" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M389" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N389" s="2">
         <f t="shared" si="18"/>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="L390" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M390" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N390" s="2">
         <f t="shared" si="18"/>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="L391" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M391" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N391" s="2">
         <f t="shared" si="18"/>
@@ -9470,11 +9470,11 @@
       </c>
       <c r="L392" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M392" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N392" s="2">
         <f t="shared" si="18"/>
@@ -9493,11 +9493,11 @@
       </c>
       <c r="L393" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M393" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N393" s="2">
         <f t="shared" si="18"/>
@@ -9516,11 +9516,11 @@
       </c>
       <c r="L394" s="2">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M394" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N394" s="2">
         <f t="shared" si="18"/>
@@ -9539,11 +9539,11 @@
       </c>
       <c r="L395" s="2">
         <f t="shared" ref="L395:L409" si="19">ROUNDUP($J$3*K395,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M395" s="2">
         <f t="shared" ref="M395:M409" si="20">ROUNDUP(L395/I395,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N395" s="2">
         <f t="shared" ref="N395:N409" si="21">M395*J395</f>
@@ -9562,11 +9562,11 @@
       </c>
       <c r="L396" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M396" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N396" s="2">
         <f t="shared" si="21"/>
@@ -9585,11 +9585,11 @@
       </c>
       <c r="L397" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M397" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N397" s="2">
         <f t="shared" si="21"/>
@@ -9608,11 +9608,11 @@
       </c>
       <c r="L398" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M398" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N398" s="2">
         <f t="shared" si="21"/>
@@ -9631,11 +9631,11 @@
       </c>
       <c r="L399" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M399" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N399" s="2">
         <f t="shared" si="21"/>
@@ -9654,11 +9654,11 @@
       </c>
       <c r="L400" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M400" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N400" s="2">
         <f t="shared" si="21"/>
@@ -9677,11 +9677,11 @@
       </c>
       <c r="L401" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M401" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N401" s="2">
         <f t="shared" si="21"/>
@@ -9700,11 +9700,11 @@
       </c>
       <c r="L402" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M402" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N402" s="2">
         <f t="shared" si="21"/>
@@ -9723,11 +9723,11 @@
       </c>
       <c r="L403" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M403" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N403" s="2">
         <f t="shared" si="21"/>
@@ -9746,11 +9746,11 @@
       </c>
       <c r="L404" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M404" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N404" s="2">
         <f t="shared" si="21"/>
@@ -9769,11 +9769,11 @@
       </c>
       <c r="L405" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M405" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N405" s="2">
         <f t="shared" si="21"/>
@@ -9792,11 +9792,11 @@
       </c>
       <c r="L406" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M406" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N406" s="2">
         <f t="shared" si="21"/>
@@ -9815,11 +9815,11 @@
       </c>
       <c r="L407" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M407" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N407" s="2">
         <f t="shared" si="21"/>
@@ -9838,11 +9838,11 @@
       </c>
       <c r="L408" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M408" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N408" s="2">
         <f t="shared" si="21"/>
@@ -9861,11 +9861,11 @@
       </c>
       <c r="L409" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M409" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N409" s="2">
         <f t="shared" si="21"/>

--- a/Administrative Spring 2023/Fundraising and Expenses/Arduino Cost Analysis.xlsx
+++ b/Administrative Spring 2023/Fundraising and Expenses/Arduino Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Coding-Club\Administrative Spring 2023\Fundraising and Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD5E2F-2DA2-4FE1-A7C7-02D50FF02DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B6AC6-4305-480D-8CB6-12BC53B7FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D7284852-D2D7-4D32-A8C3-9A44017A6B87}"/>
   </bookViews>
@@ -536,14 +536,14 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
       <c r="N3">
         <f>SUM(N10:N409)</f>
-        <v>190.88</v>
+        <v>252.84</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -553,7 +553,7 @@
       </c>
       <c r="N4">
         <f>$N$3/$J$3</f>
-        <v>31.813333333333333</v>
+        <v>25.283999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -603,15 +603,15 @@
       </c>
       <c r="L10" s="2">
         <f>ROUNDUP($J$3*K10,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M10" s="2">
         <f>ROUNDUP(L10/I10,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2">
         <f>M10*J10</f>
-        <v>19.98</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -635,15 +635,15 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" ref="L11:L74" si="0">ROUNDUP($J$3*K11,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ref="M11:M74" si="1">ROUNDUP(L11/I11,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" ref="N11:N74" si="2">M11*J11</f>
-        <v>41.98</v>
+        <v>83.96</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -722,11 +722,11 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
@@ -873,11 +873,11 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M19" s="2">
         <f>ROUNDUP(L19/I25,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="2"/>
@@ -896,11 +896,11 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M20" s="2">
         <f>ROUNDUP(L20/I26,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="2"/>
@@ -942,11 +942,11 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="2"/>
@@ -965,11 +965,11 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="2"/>
@@ -1052,11 +1052,11 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="2"/>
@@ -1075,11 +1075,11 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="2"/>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="2"/>
@@ -1121,11 +1121,11 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="2"/>
@@ -1144,11 +1144,11 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="2"/>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="2"/>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="2"/>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="2"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
@@ -1259,11 +1259,11 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="2"/>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="2"/>
@@ -1305,11 +1305,11 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="2"/>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="2"/>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="2"/>
@@ -1374,11 +1374,11 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="2"/>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="2"/>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="2"/>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="2"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="2"/>
@@ -1489,11 +1489,11 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="2"/>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="2"/>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="2"/>
@@ -1558,11 +1558,11 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="2"/>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="2"/>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="2"/>
@@ -1627,11 +1627,11 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="2"/>
@@ -1650,11 +1650,11 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="2"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="2"/>
@@ -1696,11 +1696,11 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="2"/>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="2"/>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="2"/>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="2"/>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="2"/>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="2"/>
@@ -1834,11 +1834,11 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="2"/>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="2"/>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="2"/>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="2"/>
@@ -1926,11 +1926,11 @@
       </c>
       <c r="L64" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="2"/>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="2"/>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="2"/>
@@ -1995,11 +1995,11 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="2"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="2"/>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="2"/>
@@ -2064,11 +2064,11 @@
       </c>
       <c r="L70" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="2"/>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="L71" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="2"/>
@@ -2133,11 +2133,11 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="2"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="2"/>
@@ -2179,11 +2179,11 @@
       </c>
       <c r="L75" s="2">
         <f t="shared" ref="L75:L138" si="4">ROUNDUP($J$3*K75,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ref="M75:M138" si="5">ROUNDUP(L75/I75,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" ref="N75:N138" si="6">M75*J75</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="6"/>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="6"/>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="6"/>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="L79" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="6"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="6"/>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="6"/>
@@ -2340,11 +2340,11 @@
       </c>
       <c r="L82" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="6"/>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="L83" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="6"/>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="6"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="6"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="L86" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="6"/>
@@ -2455,11 +2455,11 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="6"/>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="L88" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="6"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="6"/>
@@ -2524,11 +2524,11 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="6"/>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="L91" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="6"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="L92" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="6"/>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="6"/>
@@ -2616,11 +2616,11 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="6"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="L95" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="6"/>
@@ -2662,11 +2662,11 @@
       </c>
       <c r="L96" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="6"/>
@@ -2685,11 +2685,11 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="6"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="6"/>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="L99" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="6"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="L100" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="6"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="L101" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="6"/>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="L102" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="6"/>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="6"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="6"/>
@@ -2869,11 +2869,11 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="6"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="6"/>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="6"/>
@@ -2938,11 +2938,11 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="6"/>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="6"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="6"/>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="6"/>
@@ -3030,11 +3030,11 @@
       </c>
       <c r="L112" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N112" s="2">
         <f t="shared" si="6"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="L113" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N113" s="2">
         <f t="shared" si="6"/>
@@ -3076,11 +3076,11 @@
       </c>
       <c r="L114" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N114" s="2">
         <f t="shared" si="6"/>
@@ -3099,11 +3099,11 @@
       </c>
       <c r="L115" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N115" s="2">
         <f t="shared" si="6"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="L116" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N116" s="2">
         <f t="shared" si="6"/>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="L117" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N117" s="2">
         <f t="shared" si="6"/>
@@ -3168,11 +3168,11 @@
       </c>
       <c r="L118" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N118" s="2">
         <f t="shared" si="6"/>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="L119" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M119" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N119" s="2">
         <f t="shared" si="6"/>
@@ -3214,11 +3214,11 @@
       </c>
       <c r="L120" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M120" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N120" s="2">
         <f t="shared" si="6"/>
@@ -3237,11 +3237,11 @@
       </c>
       <c r="L121" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M121" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N121" s="2">
         <f t="shared" si="6"/>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="L122" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M122" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N122" s="2">
         <f t="shared" si="6"/>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="L123" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M123" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N123" s="2">
         <f t="shared" si="6"/>
@@ -3306,11 +3306,11 @@
       </c>
       <c r="L124" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M124" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N124" s="2">
         <f t="shared" si="6"/>
@@ -3329,11 +3329,11 @@
       </c>
       <c r="L125" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M125" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N125" s="2">
         <f t="shared" si="6"/>
@@ -3352,11 +3352,11 @@
       </c>
       <c r="L126" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M126" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N126" s="2">
         <f t="shared" si="6"/>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="L127" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M127" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N127" s="2">
         <f t="shared" si="6"/>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="L128" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M128" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N128" s="2">
         <f t="shared" si="6"/>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="L129" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M129" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N129" s="2">
         <f t="shared" si="6"/>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="L130" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M130" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N130" s="2">
         <f t="shared" si="6"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="L131" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N131" s="2">
         <f t="shared" si="6"/>
@@ -3490,11 +3490,11 @@
       </c>
       <c r="L132" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N132" s="2">
         <f t="shared" si="6"/>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="L133" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M133" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N133" s="2">
         <f t="shared" si="6"/>
@@ -3536,11 +3536,11 @@
       </c>
       <c r="L134" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M134" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N134" s="2">
         <f t="shared" si="6"/>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="L135" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M135" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N135" s="2">
         <f t="shared" si="6"/>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="L136" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M136" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N136" s="2">
         <f t="shared" si="6"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="L137" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M137" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N137" s="2">
         <f t="shared" si="6"/>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="L138" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M138" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N138" s="2">
         <f t="shared" si="6"/>
@@ -3651,11 +3651,11 @@
       </c>
       <c r="L139" s="2">
         <f t="shared" ref="L139:L202" si="7">ROUNDUP($J$3*K139,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M139" s="2">
         <f t="shared" ref="M139:M202" si="8">ROUNDUP(L139/I139,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N139" s="2">
         <f t="shared" ref="N139:N202" si="9">M139*J139</f>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="L140" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M140" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N140" s="2">
         <f t="shared" si="9"/>
@@ -3697,11 +3697,11 @@
       </c>
       <c r="L141" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M141" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N141" s="2">
         <f t="shared" si="9"/>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="L142" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M142" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N142" s="2">
         <f t="shared" si="9"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="L143" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M143" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N143" s="2">
         <f t="shared" si="9"/>
@@ -3766,11 +3766,11 @@
       </c>
       <c r="L144" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M144" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N144" s="2">
         <f t="shared" si="9"/>
@@ -3789,11 +3789,11 @@
       </c>
       <c r="L145" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M145" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N145" s="2">
         <f t="shared" si="9"/>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="L146" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M146" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N146" s="2">
         <f t="shared" si="9"/>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="L147" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M147" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N147" s="2">
         <f t="shared" si="9"/>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="L148" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M148" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N148" s="2">
         <f t="shared" si="9"/>
@@ -3881,11 +3881,11 @@
       </c>
       <c r="L149" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M149" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N149" s="2">
         <f t="shared" si="9"/>
@@ -3904,11 +3904,11 @@
       </c>
       <c r="L150" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M150" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N150" s="2">
         <f t="shared" si="9"/>
@@ -3927,11 +3927,11 @@
       </c>
       <c r="L151" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M151" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N151" s="2">
         <f t="shared" si="9"/>
@@ -3950,11 +3950,11 @@
       </c>
       <c r="L152" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M152" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N152" s="2">
         <f t="shared" si="9"/>
@@ -3973,11 +3973,11 @@
       </c>
       <c r="L153" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M153" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N153" s="2">
         <f t="shared" si="9"/>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="L154" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M154" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N154" s="2">
         <f t="shared" si="9"/>
@@ -4019,11 +4019,11 @@
       </c>
       <c r="L155" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M155" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N155" s="2">
         <f t="shared" si="9"/>
@@ -4042,11 +4042,11 @@
       </c>
       <c r="L156" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M156" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N156" s="2">
         <f t="shared" si="9"/>
@@ -4065,11 +4065,11 @@
       </c>
       <c r="L157" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M157" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N157" s="2">
         <f t="shared" si="9"/>
@@ -4088,11 +4088,11 @@
       </c>
       <c r="L158" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M158" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N158" s="2">
         <f t="shared" si="9"/>
@@ -4111,11 +4111,11 @@
       </c>
       <c r="L159" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M159" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N159" s="2">
         <f t="shared" si="9"/>
@@ -4134,11 +4134,11 @@
       </c>
       <c r="L160" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M160" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N160" s="2">
         <f t="shared" si="9"/>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="L161" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M161" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N161" s="2">
         <f t="shared" si="9"/>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="L162" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M162" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N162" s="2">
         <f t="shared" si="9"/>
@@ -4203,11 +4203,11 @@
       </c>
       <c r="L163" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M163" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N163" s="2">
         <f t="shared" si="9"/>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="L164" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M164" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N164" s="2">
         <f t="shared" si="9"/>
@@ -4249,11 +4249,11 @@
       </c>
       <c r="L165" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M165" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N165" s="2">
         <f t="shared" si="9"/>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="L166" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M166" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N166" s="2">
         <f t="shared" si="9"/>
@@ -4295,11 +4295,11 @@
       </c>
       <c r="L167" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M167" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N167" s="2">
         <f t="shared" si="9"/>
@@ -4318,11 +4318,11 @@
       </c>
       <c r="L168" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M168" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N168" s="2">
         <f t="shared" si="9"/>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="L169" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M169" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N169" s="2">
         <f t="shared" si="9"/>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="L170" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M170" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N170" s="2">
         <f t="shared" si="9"/>
@@ -4387,11 +4387,11 @@
       </c>
       <c r="L171" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M171" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N171" s="2">
         <f t="shared" si="9"/>
@@ -4410,11 +4410,11 @@
       </c>
       <c r="L172" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M172" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N172" s="2">
         <f t="shared" si="9"/>
@@ -4433,11 +4433,11 @@
       </c>
       <c r="L173" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M173" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N173" s="2">
         <f t="shared" si="9"/>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="L174" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M174" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N174" s="2">
         <f t="shared" si="9"/>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="L175" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M175" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N175" s="2">
         <f t="shared" si="9"/>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="L176" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M176" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N176" s="2">
         <f t="shared" si="9"/>
@@ -4525,11 +4525,11 @@
       </c>
       <c r="L177" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M177" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N177" s="2">
         <f t="shared" si="9"/>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="L178" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M178" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N178" s="2">
         <f t="shared" si="9"/>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="L179" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M179" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N179" s="2">
         <f t="shared" si="9"/>
@@ -4594,11 +4594,11 @@
       </c>
       <c r="L180" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M180" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N180" s="2">
         <f t="shared" si="9"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="L181" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M181" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N181" s="2">
         <f t="shared" si="9"/>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="L182" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M182" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N182" s="2">
         <f t="shared" si="9"/>
@@ -4663,11 +4663,11 @@
       </c>
       <c r="L183" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M183" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N183" s="2">
         <f t="shared" si="9"/>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="L184" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M184" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N184" s="2">
         <f t="shared" si="9"/>
@@ -4709,11 +4709,11 @@
       </c>
       <c r="L185" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M185" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N185" s="2">
         <f t="shared" si="9"/>
@@ -4732,11 +4732,11 @@
       </c>
       <c r="L186" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M186" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N186" s="2">
         <f t="shared" si="9"/>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="L187" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M187" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N187" s="2">
         <f t="shared" si="9"/>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="L188" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M188" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N188" s="2">
         <f t="shared" si="9"/>
@@ -4801,11 +4801,11 @@
       </c>
       <c r="L189" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M189" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N189" s="2">
         <f t="shared" si="9"/>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="L190" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M190" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N190" s="2">
         <f t="shared" si="9"/>
@@ -4847,11 +4847,11 @@
       </c>
       <c r="L191" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M191" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N191" s="2">
         <f t="shared" si="9"/>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="L192" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M192" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N192" s="2">
         <f t="shared" si="9"/>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="L193" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M193" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N193" s="2">
         <f t="shared" si="9"/>
@@ -4916,11 +4916,11 @@
       </c>
       <c r="L194" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M194" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N194" s="2">
         <f t="shared" si="9"/>
@@ -4939,11 +4939,11 @@
       </c>
       <c r="L195" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M195" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N195" s="2">
         <f t="shared" si="9"/>
@@ -4962,11 +4962,11 @@
       </c>
       <c r="L196" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M196" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N196" s="2">
         <f t="shared" si="9"/>
@@ -4985,11 +4985,11 @@
       </c>
       <c r="L197" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M197" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N197" s="2">
         <f t="shared" si="9"/>
@@ -5008,11 +5008,11 @@
       </c>
       <c r="L198" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M198" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N198" s="2">
         <f t="shared" si="9"/>
@@ -5031,11 +5031,11 @@
       </c>
       <c r="L199" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M199" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N199" s="2">
         <f t="shared" si="9"/>
@@ -5054,11 +5054,11 @@
       </c>
       <c r="L200" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M200" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N200" s="2">
         <f t="shared" si="9"/>
@@ -5077,11 +5077,11 @@
       </c>
       <c r="L201" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M201" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N201" s="2">
         <f t="shared" si="9"/>
@@ -5100,11 +5100,11 @@
       </c>
       <c r="L202" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M202" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N202" s="2">
         <f t="shared" si="9"/>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="L203" s="2">
         <f t="shared" ref="L203:L266" si="10">ROUNDUP($J$3*K203,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M203" s="2">
         <f t="shared" ref="M203:M266" si="11">ROUNDUP(L203/I203,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N203" s="2">
         <f t="shared" ref="N203:N266" si="12">M203*J203</f>
@@ -5146,11 +5146,11 @@
       </c>
       <c r="L204" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M204" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N204" s="2">
         <f t="shared" si="12"/>
@@ -5169,11 +5169,11 @@
       </c>
       <c r="L205" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M205" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N205" s="2">
         <f t="shared" si="12"/>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="L206" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M206" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N206" s="2">
         <f t="shared" si="12"/>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="L207" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M207" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N207" s="2">
         <f t="shared" si="12"/>
@@ -5238,11 +5238,11 @@
       </c>
       <c r="L208" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M208" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N208" s="2">
         <f t="shared" si="12"/>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="L209" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M209" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N209" s="2">
         <f t="shared" si="12"/>
@@ -5284,11 +5284,11 @@
       </c>
       <c r="L210" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M210" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N210" s="2">
         <f t="shared" si="12"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="L211" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M211" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N211" s="2">
         <f t="shared" si="12"/>
@@ -5330,11 +5330,11 @@
       </c>
       <c r="L212" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M212" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N212" s="2">
         <f t="shared" si="12"/>
@@ -5353,11 +5353,11 @@
       </c>
       <c r="L213" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M213" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N213" s="2">
         <f t="shared" si="12"/>
@@ -5376,11 +5376,11 @@
       </c>
       <c r="L214" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M214" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N214" s="2">
         <f t="shared" si="12"/>
@@ -5399,11 +5399,11 @@
       </c>
       <c r="L215" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M215" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N215" s="2">
         <f t="shared" si="12"/>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="L216" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M216" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N216" s="2">
         <f t="shared" si="12"/>
@@ -5445,11 +5445,11 @@
       </c>
       <c r="L217" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M217" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N217" s="2">
         <f t="shared" si="12"/>
@@ -5468,11 +5468,11 @@
       </c>
       <c r="L218" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M218" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N218" s="2">
         <f t="shared" si="12"/>
@@ -5491,11 +5491,11 @@
       </c>
       <c r="L219" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M219" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N219" s="2">
         <f t="shared" si="12"/>
@@ -5514,11 +5514,11 @@
       </c>
       <c r="L220" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M220" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N220" s="2">
         <f t="shared" si="12"/>
@@ -5537,11 +5537,11 @@
       </c>
       <c r="L221" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M221" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N221" s="2">
         <f t="shared" si="12"/>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="L222" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M222" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N222" s="2">
         <f t="shared" si="12"/>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="L223" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M223" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N223" s="2">
         <f t="shared" si="12"/>
@@ -5606,11 +5606,11 @@
       </c>
       <c r="L224" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M224" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N224" s="2">
         <f t="shared" si="12"/>
@@ -5629,11 +5629,11 @@
       </c>
       <c r="L225" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M225" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N225" s="2">
         <f t="shared" si="12"/>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="L226" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M226" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N226" s="2">
         <f t="shared" si="12"/>
@@ -5675,11 +5675,11 @@
       </c>
       <c r="L227" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M227" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N227" s="2">
         <f t="shared" si="12"/>
@@ -5698,11 +5698,11 @@
       </c>
       <c r="L228" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M228" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N228" s="2">
         <f t="shared" si="12"/>
@@ -5721,11 +5721,11 @@
       </c>
       <c r="L229" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M229" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N229" s="2">
         <f t="shared" si="12"/>
@@ -5744,11 +5744,11 @@
       </c>
       <c r="L230" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M230" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N230" s="2">
         <f t="shared" si="12"/>
@@ -5767,11 +5767,11 @@
       </c>
       <c r="L231" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M231" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N231" s="2">
         <f t="shared" si="12"/>
@@ -5790,11 +5790,11 @@
       </c>
       <c r="L232" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M232" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N232" s="2">
         <f t="shared" si="12"/>
@@ -5813,11 +5813,11 @@
       </c>
       <c r="L233" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M233" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N233" s="2">
         <f t="shared" si="12"/>
@@ -5836,11 +5836,11 @@
       </c>
       <c r="L234" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M234" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N234" s="2">
         <f t="shared" si="12"/>
@@ -5859,11 +5859,11 @@
       </c>
       <c r="L235" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M235" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N235" s="2">
         <f t="shared" si="12"/>
@@ -5882,11 +5882,11 @@
       </c>
       <c r="L236" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M236" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N236" s="2">
         <f t="shared" si="12"/>
@@ -5905,11 +5905,11 @@
       </c>
       <c r="L237" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M237" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N237" s="2">
         <f t="shared" si="12"/>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="L238" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M238" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N238" s="2">
         <f t="shared" si="12"/>
@@ -5951,11 +5951,11 @@
       </c>
       <c r="L239" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M239" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N239" s="2">
         <f t="shared" si="12"/>
@@ -5974,11 +5974,11 @@
       </c>
       <c r="L240" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M240" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N240" s="2">
         <f t="shared" si="12"/>
@@ -5997,11 +5997,11 @@
       </c>
       <c r="L241" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M241" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N241" s="2">
         <f t="shared" si="12"/>
@@ -6020,11 +6020,11 @@
       </c>
       <c r="L242" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M242" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N242" s="2">
         <f t="shared" si="12"/>
@@ -6043,11 +6043,11 @@
       </c>
       <c r="L243" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M243" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N243" s="2">
         <f t="shared" si="12"/>
@@ -6066,11 +6066,11 @@
       </c>
       <c r="L244" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M244" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N244" s="2">
         <f t="shared" si="12"/>
@@ -6089,11 +6089,11 @@
       </c>
       <c r="L245" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M245" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N245" s="2">
         <f t="shared" si="12"/>
@@ -6112,11 +6112,11 @@
       </c>
       <c r="L246" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M246" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N246" s="2">
         <f t="shared" si="12"/>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="L247" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M247" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N247" s="2">
         <f t="shared" si="12"/>
@@ -6158,11 +6158,11 @@
       </c>
       <c r="L248" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M248" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N248" s="2">
         <f t="shared" si="12"/>
@@ -6181,11 +6181,11 @@
       </c>
       <c r="L249" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M249" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N249" s="2">
         <f t="shared" si="12"/>
@@ -6204,11 +6204,11 @@
       </c>
       <c r="L250" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M250" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N250" s="2">
         <f t="shared" si="12"/>
@@ -6227,11 +6227,11 @@
       </c>
       <c r="L251" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M251" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N251" s="2">
         <f t="shared" si="12"/>
@@ -6250,11 +6250,11 @@
       </c>
       <c r="L252" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M252" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N252" s="2">
         <f t="shared" si="12"/>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="L253" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M253" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N253" s="2">
         <f t="shared" si="12"/>
@@ -6296,11 +6296,11 @@
       </c>
       <c r="L254" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M254" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N254" s="2">
         <f t="shared" si="12"/>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="L255" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M255" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N255" s="2">
         <f t="shared" si="12"/>
@@ -6342,11 +6342,11 @@
       </c>
       <c r="L256" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M256" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N256" s="2">
         <f t="shared" si="12"/>
@@ -6365,11 +6365,11 @@
       </c>
       <c r="L257" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M257" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N257" s="2">
         <f t="shared" si="12"/>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="L258" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M258" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N258" s="2">
         <f t="shared" si="12"/>
@@ -6411,11 +6411,11 @@
       </c>
       <c r="L259" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M259" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N259" s="2">
         <f t="shared" si="12"/>
@@ -6434,11 +6434,11 @@
       </c>
       <c r="L260" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M260" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N260" s="2">
         <f t="shared" si="12"/>
@@ -6457,11 +6457,11 @@
       </c>
       <c r="L261" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M261" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N261" s="2">
         <f t="shared" si="12"/>
@@ -6480,11 +6480,11 @@
       </c>
       <c r="L262" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M262" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N262" s="2">
         <f t="shared" si="12"/>
@@ -6503,11 +6503,11 @@
       </c>
       <c r="L263" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M263" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N263" s="2">
         <f t="shared" si="12"/>
@@ -6526,11 +6526,11 @@
       </c>
       <c r="L264" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M264" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N264" s="2">
         <f t="shared" si="12"/>
@@ -6549,11 +6549,11 @@
       </c>
       <c r="L265" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M265" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N265" s="2">
         <f t="shared" si="12"/>
@@ -6572,11 +6572,11 @@
       </c>
       <c r="L266" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M266" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N266" s="2">
         <f t="shared" si="12"/>
@@ -6595,11 +6595,11 @@
       </c>
       <c r="L267" s="2">
         <f t="shared" ref="L267:L330" si="13">ROUNDUP($J$3*K267,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M267" s="2">
         <f t="shared" ref="M267:M330" si="14">ROUNDUP(L267/I267,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N267" s="2">
         <f t="shared" ref="N267:N330" si="15">M267*J267</f>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="L268" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M268" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N268" s="2">
         <f t="shared" si="15"/>
@@ -6641,11 +6641,11 @@
       </c>
       <c r="L269" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M269" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N269" s="2">
         <f t="shared" si="15"/>
@@ -6664,11 +6664,11 @@
       </c>
       <c r="L270" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M270" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N270" s="2">
         <f t="shared" si="15"/>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="L271" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M271" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N271" s="2">
         <f t="shared" si="15"/>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="L272" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M272" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N272" s="2">
         <f t="shared" si="15"/>
@@ -6733,11 +6733,11 @@
       </c>
       <c r="L273" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M273" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N273" s="2">
         <f t="shared" si="15"/>
@@ -6756,11 +6756,11 @@
       </c>
       <c r="L274" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M274" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N274" s="2">
         <f t="shared" si="15"/>
@@ -6779,11 +6779,11 @@
       </c>
       <c r="L275" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M275" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N275" s="2">
         <f t="shared" si="15"/>
@@ -6802,11 +6802,11 @@
       </c>
       <c r="L276" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M276" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N276" s="2">
         <f t="shared" si="15"/>
@@ -6825,11 +6825,11 @@
       </c>
       <c r="L277" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M277" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N277" s="2">
         <f t="shared" si="15"/>
@@ -6848,11 +6848,11 @@
       </c>
       <c r="L278" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M278" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N278" s="2">
         <f t="shared" si="15"/>
@@ -6871,11 +6871,11 @@
       </c>
       <c r="L279" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M279" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N279" s="2">
         <f t="shared" si="15"/>
@@ -6894,11 +6894,11 @@
       </c>
       <c r="L280" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M280" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N280" s="2">
         <f t="shared" si="15"/>
@@ -6917,11 +6917,11 @@
       </c>
       <c r="L281" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M281" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N281" s="2">
         <f t="shared" si="15"/>
@@ -6940,11 +6940,11 @@
       </c>
       <c r="L282" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M282" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N282" s="2">
         <f t="shared" si="15"/>
@@ -6963,11 +6963,11 @@
       </c>
       <c r="L283" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M283" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N283" s="2">
         <f t="shared" si="15"/>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="L284" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M284" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N284" s="2">
         <f t="shared" si="15"/>
@@ -7009,11 +7009,11 @@
       </c>
       <c r="L285" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M285" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N285" s="2">
         <f t="shared" si="15"/>
@@ -7032,11 +7032,11 @@
       </c>
       <c r="L286" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M286" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N286" s="2">
         <f t="shared" si="15"/>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="L287" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M287" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N287" s="2">
         <f t="shared" si="15"/>
@@ -7078,11 +7078,11 @@
       </c>
       <c r="L288" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M288" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N288" s="2">
         <f t="shared" si="15"/>
@@ -7101,11 +7101,11 @@
       </c>
       <c r="L289" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M289" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N289" s="2">
         <f t="shared" si="15"/>
@@ -7124,11 +7124,11 @@
       </c>
       <c r="L290" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M290" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N290" s="2">
         <f t="shared" si="15"/>
@@ -7147,11 +7147,11 @@
       </c>
       <c r="L291" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M291" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N291" s="2">
         <f t="shared" si="15"/>
@@ -7170,11 +7170,11 @@
       </c>
       <c r="L292" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M292" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N292" s="2">
         <f t="shared" si="15"/>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="L293" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M293" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N293" s="2">
         <f t="shared" si="15"/>
@@ -7216,11 +7216,11 @@
       </c>
       <c r="L294" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M294" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N294" s="2">
         <f t="shared" si="15"/>
@@ -7239,11 +7239,11 @@
       </c>
       <c r="L295" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M295" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N295" s="2">
         <f t="shared" si="15"/>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="L296" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M296" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N296" s="2">
         <f t="shared" si="15"/>
@@ -7285,11 +7285,11 @@
       </c>
       <c r="L297" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M297" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N297" s="2">
         <f t="shared" si="15"/>
@@ -7308,11 +7308,11 @@
       </c>
       <c r="L298" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M298" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N298" s="2">
         <f t="shared" si="15"/>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="L299" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M299" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N299" s="2">
         <f t="shared" si="15"/>
@@ -7354,11 +7354,11 @@
       </c>
       <c r="L300" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M300" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N300" s="2">
         <f t="shared" si="15"/>
@@ -7377,11 +7377,11 @@
       </c>
       <c r="L301" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M301" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N301" s="2">
         <f t="shared" si="15"/>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="L302" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M302" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N302" s="2">
         <f t="shared" si="15"/>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="L303" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M303" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N303" s="2">
         <f t="shared" si="15"/>
@@ -7446,11 +7446,11 @@
       </c>
       <c r="L304" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M304" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N304" s="2">
         <f t="shared" si="15"/>
@@ -7469,11 +7469,11 @@
       </c>
       <c r="L305" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M305" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N305" s="2">
         <f t="shared" si="15"/>
@@ -7492,11 +7492,11 @@
       </c>
       <c r="L306" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M306" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N306" s="2">
         <f t="shared" si="15"/>
@@ -7515,11 +7515,11 @@
       </c>
       <c r="L307" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M307" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N307" s="2">
         <f t="shared" si="15"/>
@@ -7538,11 +7538,11 @@
       </c>
       <c r="L308" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M308" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N308" s="2">
         <f t="shared" si="15"/>
@@ -7561,11 +7561,11 @@
       </c>
       <c r="L309" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M309" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N309" s="2">
         <f t="shared" si="15"/>
@@ -7584,11 +7584,11 @@
       </c>
       <c r="L310" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M310" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N310" s="2">
         <f t="shared" si="15"/>
@@ -7607,11 +7607,11 @@
       </c>
       <c r="L311" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M311" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N311" s="2">
         <f t="shared" si="15"/>
@@ -7630,11 +7630,11 @@
       </c>
       <c r="L312" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M312" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N312" s="2">
         <f t="shared" si="15"/>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="L313" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M313" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N313" s="2">
         <f t="shared" si="15"/>
@@ -7676,11 +7676,11 @@
       </c>
       <c r="L314" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M314" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N314" s="2">
         <f t="shared" si="15"/>
@@ -7699,11 +7699,11 @@
       </c>
       <c r="L315" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M315" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N315" s="2">
         <f t="shared" si="15"/>
@@ -7722,11 +7722,11 @@
       </c>
       <c r="L316" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M316" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N316" s="2">
         <f t="shared" si="15"/>
@@ -7745,11 +7745,11 @@
       </c>
       <c r="L317" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M317" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N317" s="2">
         <f t="shared" si="15"/>
@@ -7768,11 +7768,11 @@
       </c>
       <c r="L318" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M318" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N318" s="2">
         <f t="shared" si="15"/>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="L319" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M319" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N319" s="2">
         <f t="shared" si="15"/>
@@ -7814,11 +7814,11 @@
       </c>
       <c r="L320" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M320" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N320" s="2">
         <f t="shared" si="15"/>
@@ -7837,11 +7837,11 @@
       </c>
       <c r="L321" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M321" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N321" s="2">
         <f t="shared" si="15"/>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="L322" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M322" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N322" s="2">
         <f t="shared" si="15"/>
@@ -7883,11 +7883,11 @@
       </c>
       <c r="L323" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M323" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N323" s="2">
         <f t="shared" si="15"/>
@@ -7906,11 +7906,11 @@
       </c>
       <c r="L324" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M324" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N324" s="2">
         <f t="shared" si="15"/>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="L325" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M325" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N325" s="2">
         <f t="shared" si="15"/>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="L326" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M326" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N326" s="2">
         <f t="shared" si="15"/>
@@ -7975,11 +7975,11 @@
       </c>
       <c r="L327" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M327" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N327" s="2">
         <f t="shared" si="15"/>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="L328" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M328" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N328" s="2">
         <f t="shared" si="15"/>
@@ -8021,11 +8021,11 @@
       </c>
       <c r="L329" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M329" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N329" s="2">
         <f t="shared" si="15"/>
@@ -8044,11 +8044,11 @@
       </c>
       <c r="L330" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M330" s="2">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N330" s="2">
         <f t="shared" si="15"/>
@@ -8067,11 +8067,11 @@
       </c>
       <c r="L331" s="2">
         <f t="shared" ref="L331:L394" si="16">ROUNDUP($J$3*K331,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M331" s="2">
         <f t="shared" ref="M331:M394" si="17">ROUNDUP(L331/I331,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N331" s="2">
         <f t="shared" ref="N331:N394" si="18">M331*J331</f>
@@ -8090,11 +8090,11 @@
       </c>
       <c r="L332" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M332" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N332" s="2">
         <f t="shared" si="18"/>
@@ -8113,11 +8113,11 @@
       </c>
       <c r="L333" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M333" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N333" s="2">
         <f t="shared" si="18"/>
@@ -8136,11 +8136,11 @@
       </c>
       <c r="L334" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M334" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N334" s="2">
         <f t="shared" si="18"/>
@@ -8159,11 +8159,11 @@
       </c>
       <c r="L335" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M335" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N335" s="2">
         <f t="shared" si="18"/>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="L336" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M336" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N336" s="2">
         <f t="shared" si="18"/>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="L337" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M337" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N337" s="2">
         <f t="shared" si="18"/>
@@ -8228,11 +8228,11 @@
       </c>
       <c r="L338" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M338" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N338" s="2">
         <f t="shared" si="18"/>
@@ -8251,11 +8251,11 @@
       </c>
       <c r="L339" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M339" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N339" s="2">
         <f t="shared" si="18"/>
@@ -8274,11 +8274,11 @@
       </c>
       <c r="L340" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M340" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N340" s="2">
         <f t="shared" si="18"/>
@@ -8297,11 +8297,11 @@
       </c>
       <c r="L341" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M341" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N341" s="2">
         <f t="shared" si="18"/>
@@ -8320,11 +8320,11 @@
       </c>
       <c r="L342" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M342" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N342" s="2">
         <f t="shared" si="18"/>
@@ -8343,11 +8343,11 @@
       </c>
       <c r="L343" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M343" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N343" s="2">
         <f t="shared" si="18"/>
@@ -8366,11 +8366,11 @@
       </c>
       <c r="L344" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M344" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N344" s="2">
         <f t="shared" si="18"/>
@@ -8389,11 +8389,11 @@
       </c>
       <c r="L345" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M345" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N345" s="2">
         <f t="shared" si="18"/>
@@ -8412,11 +8412,11 @@
       </c>
       <c r="L346" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M346" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N346" s="2">
         <f t="shared" si="18"/>
@@ -8435,11 +8435,11 @@
       </c>
       <c r="L347" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M347" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N347" s="2">
         <f t="shared" si="18"/>
@@ -8458,11 +8458,11 @@
       </c>
       <c r="L348" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M348" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N348" s="2">
         <f t="shared" si="18"/>
@@ -8481,11 +8481,11 @@
       </c>
       <c r="L349" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M349" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N349" s="2">
         <f t="shared" si="18"/>
@@ -8504,11 +8504,11 @@
       </c>
       <c r="L350" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M350" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N350" s="2">
         <f t="shared" si="18"/>
@@ -8527,11 +8527,11 @@
       </c>
       <c r="L351" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M351" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N351" s="2">
         <f t="shared" si="18"/>
@@ -8550,11 +8550,11 @@
       </c>
       <c r="L352" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M352" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N352" s="2">
         <f t="shared" si="18"/>
@@ -8573,11 +8573,11 @@
       </c>
       <c r="L353" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M353" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N353" s="2">
         <f t="shared" si="18"/>
@@ -8596,11 +8596,11 @@
       </c>
       <c r="L354" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M354" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N354" s="2">
         <f t="shared" si="18"/>
@@ -8619,11 +8619,11 @@
       </c>
       <c r="L355" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M355" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N355" s="2">
         <f t="shared" si="18"/>
@@ -8642,11 +8642,11 @@
       </c>
       <c r="L356" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M356" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N356" s="2">
         <f t="shared" si="18"/>
@@ -8665,11 +8665,11 @@
       </c>
       <c r="L357" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M357" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N357" s="2">
         <f t="shared" si="18"/>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="L358" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M358" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N358" s="2">
         <f t="shared" si="18"/>
@@ -8711,11 +8711,11 @@
       </c>
       <c r="L359" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M359" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N359" s="2">
         <f t="shared" si="18"/>
@@ -8734,11 +8734,11 @@
       </c>
       <c r="L360" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M360" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N360" s="2">
         <f t="shared" si="18"/>
@@ -8757,11 +8757,11 @@
       </c>
       <c r="L361" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M361" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N361" s="2">
         <f t="shared" si="18"/>
@@ -8780,11 +8780,11 @@
       </c>
       <c r="L362" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M362" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N362" s="2">
         <f t="shared" si="18"/>
@@ -8803,11 +8803,11 @@
       </c>
       <c r="L363" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M363" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N363" s="2">
         <f t="shared" si="18"/>
@@ -8826,11 +8826,11 @@
       </c>
       <c r="L364" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M364" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N364" s="2">
         <f t="shared" si="18"/>
@@ -8849,11 +8849,11 @@
       </c>
       <c r="L365" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M365" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N365" s="2">
         <f t="shared" si="18"/>
@@ -8872,11 +8872,11 @@
       </c>
       <c r="L366" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M366" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N366" s="2">
         <f t="shared" si="18"/>
@@ -8895,11 +8895,11 @@
       </c>
       <c r="L367" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M367" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N367" s="2">
         <f t="shared" si="18"/>
@@ -8918,11 +8918,11 @@
       </c>
       <c r="L368" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M368" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N368" s="2">
         <f t="shared" si="18"/>
@@ -8941,11 +8941,11 @@
       </c>
       <c r="L369" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M369" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N369" s="2">
         <f t="shared" si="18"/>
@@ -8964,11 +8964,11 @@
       </c>
       <c r="L370" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M370" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N370" s="2">
         <f t="shared" si="18"/>
@@ -8987,11 +8987,11 @@
       </c>
       <c r="L371" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M371" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N371" s="2">
         <f t="shared" si="18"/>
@@ -9010,11 +9010,11 @@
       </c>
       <c r="L372" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M372" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N372" s="2">
         <f t="shared" si="18"/>
@@ -9033,11 +9033,11 @@
       </c>
       <c r="L373" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M373" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N373" s="2">
         <f t="shared" si="18"/>
@@ -9056,11 +9056,11 @@
       </c>
       <c r="L374" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M374" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N374" s="2">
         <f t="shared" si="18"/>
@@ -9079,11 +9079,11 @@
       </c>
       <c r="L375" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M375" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N375" s="2">
         <f t="shared" si="18"/>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="L376" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M376" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N376" s="2">
         <f t="shared" si="18"/>
@@ -9125,11 +9125,11 @@
       </c>
       <c r="L377" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M377" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N377" s="2">
         <f t="shared" si="18"/>
@@ -9148,11 +9148,11 @@
       </c>
       <c r="L378" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M378" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N378" s="2">
         <f t="shared" si="18"/>
@@ -9171,11 +9171,11 @@
       </c>
       <c r="L379" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M379" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N379" s="2">
         <f t="shared" si="18"/>
@@ -9194,11 +9194,11 @@
       </c>
       <c r="L380" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M380" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N380" s="2">
         <f t="shared" si="18"/>
@@ -9217,11 +9217,11 @@
       </c>
       <c r="L381" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M381" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N381" s="2">
         <f t="shared" si="18"/>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="L382" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M382" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N382" s="2">
         <f t="shared" si="18"/>
@@ -9263,11 +9263,11 @@
       </c>
       <c r="L383" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M383" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N383" s="2">
         <f t="shared" si="18"/>
@@ -9286,11 +9286,11 @@
       </c>
       <c r="L384" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M384" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N384" s="2">
         <f t="shared" si="18"/>
@@ -9309,11 +9309,11 @@
       </c>
       <c r="L385" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M385" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N385" s="2">
         <f t="shared" si="18"/>
@@ -9332,11 +9332,11 @@
       </c>
       <c r="L386" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M386" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N386" s="2">
         <f t="shared" si="18"/>
@@ -9355,11 +9355,11 @@
       </c>
       <c r="L387" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M387" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N387" s="2">
         <f t="shared" si="18"/>
@@ -9378,11 +9378,11 @@
       </c>
       <c r="L388" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M388" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N388" s="2">
         <f t="shared" si="18"/>
@@ -9401,11 +9401,11 @@
       </c>
       <c r="L389" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M389" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N389" s="2">
         <f t="shared" si="18"/>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="L390" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M390" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N390" s="2">
         <f t="shared" si="18"/>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="L391" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M391" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N391" s="2">
         <f t="shared" si="18"/>
@@ -9470,11 +9470,11 @@
       </c>
       <c r="L392" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M392" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N392" s="2">
         <f t="shared" si="18"/>
@@ -9493,11 +9493,11 @@
       </c>
       <c r="L393" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M393" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N393" s="2">
         <f t="shared" si="18"/>
@@ -9516,11 +9516,11 @@
       </c>
       <c r="L394" s="2">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M394" s="2">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N394" s="2">
         <f t="shared" si="18"/>
@@ -9539,11 +9539,11 @@
       </c>
       <c r="L395" s="2">
         <f t="shared" ref="L395:L409" si="19">ROUNDUP($J$3*K395,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M395" s="2">
         <f t="shared" ref="M395:M409" si="20">ROUNDUP(L395/I395,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N395" s="2">
         <f t="shared" ref="N395:N409" si="21">M395*J395</f>
@@ -9562,11 +9562,11 @@
       </c>
       <c r="L396" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M396" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N396" s="2">
         <f t="shared" si="21"/>
@@ -9585,11 +9585,11 @@
       </c>
       <c r="L397" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M397" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N397" s="2">
         <f t="shared" si="21"/>
@@ -9608,11 +9608,11 @@
       </c>
       <c r="L398" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M398" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N398" s="2">
         <f t="shared" si="21"/>
@@ -9631,11 +9631,11 @@
       </c>
       <c r="L399" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M399" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N399" s="2">
         <f t="shared" si="21"/>
@@ -9654,11 +9654,11 @@
       </c>
       <c r="L400" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M400" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N400" s="2">
         <f t="shared" si="21"/>
@@ -9677,11 +9677,11 @@
       </c>
       <c r="L401" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M401" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N401" s="2">
         <f t="shared" si="21"/>
@@ -9700,11 +9700,11 @@
       </c>
       <c r="L402" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M402" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N402" s="2">
         <f t="shared" si="21"/>
@@ -9723,11 +9723,11 @@
       </c>
       <c r="L403" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M403" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N403" s="2">
         <f t="shared" si="21"/>
@@ -9746,11 +9746,11 @@
       </c>
       <c r="L404" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M404" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N404" s="2">
         <f t="shared" si="21"/>
@@ -9769,11 +9769,11 @@
       </c>
       <c r="L405" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M405" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N405" s="2">
         <f t="shared" si="21"/>
@@ -9792,11 +9792,11 @@
       </c>
       <c r="L406" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M406" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N406" s="2">
         <f t="shared" si="21"/>
@@ -9815,11 +9815,11 @@
       </c>
       <c r="L407" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M407" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N407" s="2">
         <f t="shared" si="21"/>
@@ -9838,11 +9838,11 @@
       </c>
       <c r="L408" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M408" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N408" s="2">
         <f t="shared" si="21"/>
@@ -9861,11 +9861,11 @@
       </c>
       <c r="L409" s="2">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M409" s="2">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N409" s="2">
         <f t="shared" si="21"/>
